--- a/orders.xlsx
+++ b/orders.xlsx
@@ -563,12 +563,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -782,12 +782,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -855,12 +855,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -928,12 +928,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1512,12 +1512,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1804,12 +1804,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2096,12 +2096,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2230,12 +2230,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2445,12 +2445,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2810,12 +2810,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2879,12 +2879,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3021,12 +3021,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3094,12 +3094,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 01:30 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3240,12 +3240,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3382,12 +3382,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3601,12 +3601,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3674,12 +3674,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 14:09 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 00:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 16, 18:21 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3958,12 +3958,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolodation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 17, 17:16 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4031,12 +4031,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 01:45 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,27 +513,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8191641046497491</t>
+          <t>8192146329897491</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DearBeauty Exclusive Store</t>
+          <t>Jimi Shoes Store</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3 Layers Soft Brace Neck Massager Air Inflatable C - Blue</t>
+          <t>2Pair Silicone Metatarsal Pads for Shoes Non-Slip  - 2Pairs-Beige, CHINA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$4.62</t>
+          <t>US $1.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>$4.88</t>
+          <t>US $2.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -553,60 +553,60 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046497491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329897491</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>CNUSUP00003994120</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['./img/8191641046497491/img_0.png']</t>
+          <t>['./img/8192146329897491/img_0.png']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>2Pairs-Beige, CHINA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8191641046477491</t>
+          <t>8192146329877491</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lowball Lover Store</t>
+          <t>Naisii Store</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4PCS Butterfly Screen Protectors for Samsung Galax - Galaxy S21 Ultra, 4PCS</t>
+          <t>High Heels Non-slip Front Sole Pads Women's Sponge - 4pcs-skin tone</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$4.25</t>
+          <t>US $2.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$4.50</t>
+          <t>US $2.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -626,60 +626,60 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046477491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329877491</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>CNUSUP00003994120</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['./img/8191641046477491/img_0.png']</t>
+          <t>['./img/8192146329877491/img_0.png']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra, 4PCS</t>
+          <t>4pcs-skin tone</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8191641046457491</t>
+          <t>8192146329857491</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Freemoto Store</t>
+          <t>Pyke Tamia Store</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MOTOWOLF Universal Motorcycle Full Face Helmet Shi - MDL1912B</t>
+          <t>4pcs Sandals Anti-slip Stickers Leather Forefoot P - Apricot-3mm-2 pairs, CHINA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$6.08</t>
+          <t>US $2.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$6.42</t>
+          <t>US $2.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -699,60 +699,60 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046457491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329857491</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>CNUSUP00003994120</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['./img/8191641046457491/img_0.png']</t>
+          <t>['./img/8192146329857491/img_0.png']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>MDL1912B</t>
+          <t>Apricot-3mm-2 pairs, CHINA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8191641046437491</t>
+          <t>8192146329837491</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shop1103414099 Store</t>
+          <t>EYUD Official Store Store</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>USB Mini Massage Gun Fascia Machine Muscle Relaxat - GRAY, Type C Charge</t>
+          <t>Half Insoles for Shoes Inserts Forefoot Insert Non - Women Beige Round, CHINA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$4.22</t>
+          <t>US $1.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>$4.46</t>
+          <t>US $1.65</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -772,60 +772,60 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046437491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329837491</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>CNUSUP00004010899</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['./img/8191641046437491/img_0.png']</t>
+          <t>['./img/8192146329837491/img_0.png']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>GRAY, Type C Charge</t>
+          <t>Women Beige Round, CHINA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8191641046417491</t>
+          <t>8192146329817491</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shop626 Store</t>
+          <t>Worldmuma Store</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Headphone Stand Rack Non-Slip Headset Holder for A - black</t>
+          <t>NEW Car Repair Tool Kit 46/53 Piece/Set 1/4-Inch S - 46 PCS Black</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$3.03</t>
+          <t>US $7.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>$3.23</t>
+          <t>US $8.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -845,60 +845,60 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046417491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329817491</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>CNUSUP00004010899</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['./img/8191641046417491/img_0.png']</t>
+          <t>['./img/8192146329817491/img_0.png']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>46 PCS Black</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8191641046397491</t>
+          <t>8192146329797491</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Super Factory Digitaling Store</t>
+          <t>Global Tool Wholesale Store</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8 in 2 USB C Hub USB Splitter USB Extender with 4  - 8 IN 2</t>
+          <t>Magnetic Screwdriver Set 63 In 1 Kit Bits Precisio - 25-1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$8.65</t>
+          <t>US $1.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$8.77</t>
+          <t>US $1.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -918,60 +918,60 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046397491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329797491</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>CNUSUP00004010899</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['./img/8191641046397491/img_0.png']</t>
+          <t>['./img/8192146329797491/img_0.png']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>8 IN 2</t>
+          <t>25-1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8191641046377491</t>
+          <t>8192146329777491</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MiCODUS Official Store</t>
+          <t>ZIShan Store</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MiCODUS Rastreador Veiculo GPS Para Auto MV710G 9- - MV710G Lifetime APP, CHINA</t>
+          <t>11/18/26/36/41PCS Car Terminal Removal Connector E - 41pcs</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$28.60</t>
+          <t>US $3.21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>$30.52</t>
+          <t>US $3.29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -991,60 +991,60 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046377491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329777491</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>CNUSUP00004010899</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['./img/8191641046377491/img_0.png']</t>
+          <t>['./img/8192146329777491/img_0.png']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>MV710G Lifetime APP, CHINA</t>
+          <t>41pcs</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8191641046357491</t>
+          <t>8192146329757491</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Morning Chan Store</t>
+          <t>Dvieuhfgwnvov Store</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nintendo Switch Power Adapter and Switch Lite Plug - black</t>
+          <t>10Pairs Sports Men Socks Printed Maple Leaf Colorf - 10 pairs</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$9.04</t>
+          <t>US $4.62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>$9.55</t>
+          <t>US $4.78</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1064,60 +1064,60 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046357491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329757491</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>CNUSUP00003994120</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['./img/8191641046357491/img_0.png']</t>
+          <t>['./img/8192146329757491/img_0.png']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>10 pairs</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8191641046337491</t>
+          <t>8192146329737491</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GEAK 3C Store</t>
+          <t>1768 Store</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>For Xiaomi Watch S2/S1 Pro/S1 Active HD Screen Pro - 10pcs, For Watch S1</t>
+          <t>Bamboo Slub Couple Bracelet for Lover Women Men Ha - 2Pcs Couple Bracelet</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$2.28</t>
+          <t>US $2.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>$2.43</t>
+          <t>US $2.83</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1137,60 +1137,60 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046337491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329737491</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>LP00671472073489</t>
+          <t>CNUSUP00003994120</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['./img/8191641046337491/img_0.png']</t>
+          <t>['./img/8192146329737491/img_0.png']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>10pcs, For Watch S1</t>
+          <t>2Pcs Couple Bracelet</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8191641046317491</t>
+          <t>8192146329717491</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KVM And HDMI 5 Store</t>
+          <t>AOTOLK Factory Store</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wireless HDMI Transmitter and Receiver 30 Meter Pl - 1TX -1RX-30M-1080P</t>
+          <t>5 Pairs Women Socks Cartoon Cat Cute Funny Persona - 5 Pairs B-Christmas, EUR35-40(US 5-8)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$49.02</t>
+          <t>US $5.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>$52.29</t>
+          <t>US $5.49</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1210,60 +1210,60 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046317491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329717491</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>CNUSUP00003994120</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['./img/8191641046317491/img_0.png']</t>
+          <t>['./img/8192146329717491/img_0.png']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1TX -1RX-30M-1080P</t>
+          <t>5 Pairs B-Christmas, EUR35-40(US 5-8)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8191641046297491</t>
+          <t>8192146329697491</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Aug 27, 2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Newshark Store</t>
+          <t>Trend Sportwear Store</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dustproof Cover Impact Drill Dustproof Household E - dust cover</t>
+          <t>Camo Running Shorts Men Gym Sports Shorts 2 In 1 Q - style1 All Black, XXXL(195cm 90kg)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$1.79</t>
+          <t>US $7.38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>$1.90</t>
+          <t>US $7.64</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1283,40 +1283,40 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046297491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329697491</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>CNUSUP00004010899</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['./img/8191641046297491/img_0.png']</t>
+          <t>['./img/8192146329697491/img_0.png']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>dust cover</t>
+          <t>style1 All Black, XXXL(195cm 90kg)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8191641046277491</t>
+          <t>8191641046497491</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1326,17 +1326,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HDmatters Official Store</t>
+          <t>DearBeauty Exclusive Store</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HDMI 2.0 Switch 4K 60Hz HDR Switch HDMI box HDMI 3 - 5X1, Check Note</t>
+          <t>3 Layers Soft Brace Neck Massager Air Inflatable C - Blue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$16.11</t>
+          <t>US $4.62</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>$17.02</t>
+          <t>US $4.88</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046277491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046497491</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1366,30 +1366,30 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['./img/8191641046277491/img_0.png']</t>
+          <t>['./img/8191641046497491/img_0.png']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>5X1, Check Note</t>
+          <t>Blue</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8191641046257491</t>
+          <t>8191641046477491</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1399,17 +1399,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HIPICOK Official Store</t>
+          <t>Lowball Lover Store</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HiPiCok Water Pump 19 Liters Water Dispenser for B - Black Pump and Base</t>
+          <t>4PCS Butterfly Screen Protectors for Samsung Galax - Galaxy S21 Ultra, 4PCS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>$13.44</t>
+          <t>US $4.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>$14.20</t>
+          <t>US $4.50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046257491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046477491</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1439,30 +1439,30 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['./img/8191641046257491/img_0.png']</t>
+          <t>['./img/8191641046477491/img_0.png']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Black Pump and Base</t>
+          <t>Galaxy S21 Ultra, 4PCS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8191641046237491</t>
+          <t>8191641046457491</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1472,17 +1472,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Smiling 2022 3C Store</t>
+          <t>Freemoto Store</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023 Polishing Cloth For Apple iPhone iPad Air Mac - 1 Piece</t>
+          <t>MOTOWOLF Universal Motorcycle Full Face Helmet Shi - MDL1912B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$1.84</t>
+          <t>US $6.08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>$1.96</t>
+          <t>US $6.42</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1502,12 +1502,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046237491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046457491</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>LP00671472073489</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1517,25 +1517,25 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['./img/8191641046237491/img_0.png']</t>
+          <t>['./img/8191641046457491/img_0.png']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1 Piece</t>
+          <t>MDL1912B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8191641046217491</t>
+          <t>8191641046397491</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1545,17 +1545,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jayz Car Dropshipping Store</t>
+          <t>Super Factory Digitaling Store</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2pcs Non-slip Car Water Cup Pad Diamond Rhinestone - 4PCS, China</t>
+          <t>8 in 2 USB C Hub USB Splitter USB Extender with 4  - 8 IN 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>$2.50</t>
+          <t>US $8.65</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>$2.58</t>
+          <t>US $8.77</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046217491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046397491</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1585,30 +1585,30 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['./img/8191641046217491/img_0.png']</t>
+          <t>['./img/8191641046397491/img_0.png']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>4PCS, China</t>
+          <t>8 IN 2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8191641046197491</t>
+          <t>8191641046357491</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1618,27 +1618,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ALANGDUO 3C TECH Store</t>
+          <t>Morning Chan Store</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-5PCS Hydrogel Film For Redmi Watch 4 watch4 HD S - 5PCS, For Redmi Watch4</t>
+          <t>Nintendo Switch Power Adapter and Switch Lite Plug - black</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>$1.69</t>
+          <t>US $9.04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>$3.60</t>
+          <t>US $9.55</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1648,40 +1648,40 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046197491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046357491</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LQ835416399CN</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['./img/8191641046197491/img_0.png']</t>
+          <t>['./img/8191641046357491/img_0.png']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>5PCS, For Redmi Watch4</t>
+          <t>black</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8191641046177491</t>
+          <t>8191641046317491</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1691,17 +1691,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Shop1102738548 Store</t>
+          <t>KVM And HDMI 5 Store</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No Inner Ring Diving Material Fashion Color Matchi - Purple</t>
+          <t>Wireless HDMI Transmitter and Receiver 30 Meter Pl - 1TX -1RX-30M-1080P</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>$2.62</t>
+          <t>US $49.02</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>$2.79</t>
+          <t>US $52.29</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1721,40 +1721,40 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046177491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046317491</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>LP00671472073489</t>
+          <t>LQ835416399CN</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['./img/8191641046177491/img_0.png']</t>
+          <t>['./img/8191641046317491/img_0.png']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Purple</t>
+          <t>1TX -1RX-30M-1080P</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8191641046157491</t>
+          <t>8191641046297491</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1764,17 +1764,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PreciousAcc Store</t>
+          <t>Newshark Store</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Womens Heart O-Ring Slip Chain Necklace Punk Rock  - A1</t>
+          <t>Dustproof Cover Impact Drill Dustproof Household E - dust cover</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>$3.73</t>
+          <t>US $1.79</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>$3.94</t>
+          <t>US $1.90</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1794,40 +1794,40 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046157491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046297491</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>LP00671472073489</t>
+          <t>LQ835416399CN</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['./img/8191641046157491/img_0.png']</t>
+          <t>['./img/8191641046297491/img_0.png']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>dust cover</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8191641046137491</t>
+          <t>8191641046277491</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1837,17 +1837,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PHENVEL Online Store</t>
+          <t>HDmatters Official Store</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2Pc Safety Cover Screen Protector Protective Glass - For Pixel 8</t>
+          <t>HDMI 2.0 Switch 4K 60Hz HDR Switch HDMI box HDMI 3 - 5X1, Check Note</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>$3.64</t>
+          <t>US $16.11</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>$3.85</t>
+          <t>US $17.02</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1867,40 +1867,40 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046137491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046277491</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LQ835416399CN</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['./img/8191641046137491/img_0.png']</t>
+          <t>['./img/8191641046277491/img_0.png']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>For Pixel 8</t>
+          <t>5X1, Check Note</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8191641046117491</t>
+          <t>8191641046257491</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1910,17 +1910,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ugreen Official Store</t>
+          <t>HIPICOK Official Store</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UGREEN USB C to USB Type C 100W Fast Charging For  - 2M 2PCS, 0.5 to 3m, CHINA</t>
+          <t>HiPiCok Water Pump 19 Liters Water Dispenser for B - Black Pump and Base</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>$11.45</t>
+          <t>US $13.44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>$11.96</t>
+          <t>US $14.20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1940,40 +1940,40 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046117491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046257491</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>LQ835416399CN</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['./img/8191641046117491/img_0.png']</t>
+          <t>['./img/8191641046257491/img_0.png']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2M 2PCS, 0.5 to 3m, CHINA</t>
+          <t>Black Pump and Base</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8191641046077491</t>
+          <t>8191641046217491</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Her Anni Store</t>
+          <t>Jayz Car Dropshipping Store</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Portable Mini Hard Shell Digital Gadgets Storage B - A-Square-Gray-L</t>
+          <t>2pcs Non-slip Car Water Cup Pad Diamond Rhinestone - 4PCS, China</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>$4.72</t>
+          <t>US $2.50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>$4.78</t>
+          <t>US $2.58</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2013,40 +2013,40 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046077491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046217491</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>LP00671472073489</t>
+          <t>LQ835416399CN</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['./img/8191641046077491/img_0.png']</t>
+          <t>['./img/8191641046217491/img_0.png']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>A-Square-Gray-L</t>
+          <t>4PCS, China</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8191641046057491</t>
+          <t>8191641046197491</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2056,27 +2056,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Trig Rain Official Store</t>
+          <t>ALANGDUO 3C TECH Store</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Earphone Ear Pads For Logitech G733 G 733 Earpads  - Grey black-1pcs</t>
+          <t>3-5PCS Hydrogel Film For Redmi Watch 4 watch4 HD S - 5PCS, For Redmi Watch4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>$1.94</t>
+          <t>US $1.69</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>$1.96</t>
+          <t>US $3.60</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2086,40 +2086,40 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046057491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046197491</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>420331729212490362719153543181</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Package delivered</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 26, 14:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 26, 13:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;New delivery attempt is ongoing&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 24, 11:58 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['./img/8191641046057491/img_0.png']</t>
+          <t>['./img/8191641046197491/img_0.png']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Grey black-1pcs</t>
+          <t>5PCS, For Redmi Watch4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8191641046017491</t>
+          <t>8191641046117491</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2129,23 +2129,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bene Jewelry Store</t>
+          <t>Ugreen Official Store</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Multiple Products</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>UGREEN USB C to USB Type C 100W Fast Charging For  - 2M 2PCS, 0.5 to 3m, CHINA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>US $11.45</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>$3.85</t>
+          <t>US $11.96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2155,12 +2159,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046017491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046117491</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2170,21 +2174,25 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['./img/8191641046017491/img_0.png', './img/8191641046017491/img_1.png', './img/8191641046017491/img_2.png']</t>
+          <t>['./img/8191641046117491/img_0.png']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2M 2PCS, 0.5 to 3m, CHINA</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8191641045977491</t>
+          <t>8191641046057491</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2194,23 +2202,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Miss Zoe Official Store</t>
+          <t>Trig Rain Official Store</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Multiple Products</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>Earphone Ear Pads For Logitech G733 G 733 Earpads  - Grey black-1pcs</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>US $1.94</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>$3.27</t>
+          <t>US $1.96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2220,7 +2232,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045977491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046057491</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2230,26 +2242,30 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['./img/8191641045977491/img_0.png', './img/8191641045977491/img_1.png', './img/8191641045977491/img_2.png']</t>
+          <t>['./img/8191641046057491/img_0.png']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Grey black-1pcs</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8191641045957491</t>
+          <t>8191641046017491</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2259,27 +2275,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Forever Beautiful Store</t>
+          <t>Bene Jewelry Store</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-in-1 Dog Hair Brush Cat Hair Brush Electric Pet  - Khaki</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$3.72</t>
-        </is>
-      </c>
+          <t>Multiple Products</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>$3.93</t>
+          <t>US $3.85</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2289,7 +2301,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045957491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046017491</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2299,30 +2311,26 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Package delivered</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 26, 14:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 26, 13:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;New delivery attempt is ongoing&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 24, 11:58 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['./img/8191641045957491/img_0.png']</t>
+          <t>['./img/8191641046017491/img_0.png', './img/8191641046017491/img_1.png', './img/8191641046017491/img_2.png']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Khaki</t>
-        </is>
-      </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8191641045937491</t>
+          <t>8191641045977491</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2332,27 +2340,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NLpearl Official Store</t>
+          <t>Miss Zoe Official Store</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NLpearl LED Bar Work Light 12V 24V Offroad Spot Fl - 1pc 240W led bar</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$16.65</t>
-        </is>
-      </c>
+          <t>Multiple Products</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>$17.59</t>
+          <t>US $3.27</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2362,12 +2366,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045937491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045977491</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2377,20 +2381,16 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['./img/8191641045937491/img_0.png']</t>
+          <t>['./img/8191641045977491/img_0.png', './img/8191641045977491/img_1.png', './img/8191641045977491/img_2.png']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1pc 240W led bar</t>
-        </is>
-      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>$1.22</t>
+          <t>US $1.22</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>$1.30</t>
+          <t>US $1.30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2445,12 +2445,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Accepted for transportation by postal service</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2468,7 +2468,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8191641045897491</t>
+          <t>8191641045817491</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ocean Loop Store</t>
+          <t>GAFASTWO Official Store</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Silicone+Leather Strap For Samsung Galaxy Watch 6  - Black Brown, Watch 4 Classic 46mm</t>
+          <t>Anti-sunburn Sleeve Summer New Loose Breathable UV - White, One Size</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>$3.11</t>
+          <t>US $3.55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>$3.29</t>
+          <t>US $3.59</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2508,40 +2508,40 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045897491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045817491</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LP00671472073489</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Package delivered</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 12:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived in transit country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 09:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from customs&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 07:53 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['./img/8191641045897491/img_0.png']</t>
+          <t>['./img/8191641045817491/img_0.png']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Black Brown, Watch 4 Classic 46mm</t>
+          <t>White, One Size</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8191641045877491</t>
+          <t>8191641045707491</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2551,27 +2551,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ONM Official Store</t>
+          <t>Cohai Store</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Glass + Case for Xiaomi Redmi Watch 4 Accessory PC - Black, For Redmi Watch 4</t>
+          <t>2M/1M Flexible Spiral Cable Wire Protector Cable O - 16mmx1m Black</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>$1.57</t>
+          <t>US $1.94</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>$3.28</t>
+          <t>US $2.04</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2581,40 +2581,40 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045877491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045707491</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LQ835416399CN</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Arrived at line-haul office</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['./img/8191641045877491/img_0.png']</t>
+          <t>['./img/8191641045707491/img_0.png']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Black, For Redmi Watch 4</t>
+          <t>16mmx1m Black</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8191641045857491</t>
+          <t>8191641045667491</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2624,17 +2624,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Miss Zoe Official Store</t>
+          <t>Motolight Store</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Childhood Arcade Pixel Game Peripheral Enamel Pins - TKP549-2</t>
+          <t>Newest Motorcycle hand Helmet bag Motocross Racing</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>$1.82</t>
+          <t>US $16.10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>$1.92</t>
+          <t>US $16.84</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2654,12 +2654,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045857491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045667491</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>LP00671472073489</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2669,25 +2669,21 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['./img/8191641045857491/img_0.png']</t>
+          <t>['./img/8191641045667491/img_0.png']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>TKP549-2</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8191641045837491</t>
+          <t>8191641045647491</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2697,17 +2693,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AUTO Man</t>
+          <t>Star-ACE Store</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SEAMETAL Car Dashboard Phone Bracket Universal Aut - Textured Type</t>
+          <t>Magnesium Powder Bag Waterproof Polyester Chalk Ba - Black</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>$4.95</t>
+          <t>US $4.34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2717,7 +2713,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>$5.22</t>
+          <t>US $4.59</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2727,12 +2723,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045837491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045647491</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2742,25 +2738,25 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['./img/8191641045837491/img_0.png']</t>
+          <t>['./img/8191641045647491/img_0.png']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Textured Type</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8191641045817491</t>
+          <t>8191641045607491</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2770,27 +2766,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GAFASTWO Official Store</t>
+          <t>QIHE JEWELRY Boholand Store</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Anti-sunburn Sleeve Summer New Loose Breathable UV - White, One Size</t>
+          <t>Interesting Goose Enamel Pin Cartoon Animal Rose H - XZ9159</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>$3.55</t>
+          <t>US $1.36</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>$3.59</t>
+          <t>US $2.68</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2800,12 +2796,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045817491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045607491</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>LP00671472073489</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2815,25 +2811,25 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['./img/8191641045817491/img_0.png']</t>
+          <t>['./img/8191641045607491/img_0.png']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>White, One Size</t>
+          <t>XZ9159</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8191641045787491</t>
+          <t>8191641045567491</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2843,23 +2839,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gorillasfigure Dropshipping Factory Store</t>
+          <t>10Seven Store</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Multiple Products</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>Tire Valve Dust Caps Stem Covers Plastic Car Wheel - 100Pcs Black</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>US $1.95</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>$9.77</t>
+          <t>US $2.06</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045787491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045567491</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2884,21 +2884,25 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['./img/8191641045787491/img_0.png', './img/8191641045787491/img_1.png']</t>
+          <t>['./img/8191641045567491/img_0.png']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>100Pcs Black</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8191641045767491</t>
+          <t>8191641045527491</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2908,17 +2912,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Factory Auto Upholstery Store</t>
+          <t>Speeding and Running Digital Store</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5 Pin HD Car Rear View Camera Reverse 4LED Night V - 1 set, China</t>
+          <t>90 Degree Left Right Up Down Angled USB 3.0 A Male - black 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>$3.82</t>
+          <t>US $1.23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2928,7 +2932,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>$4.08</t>
+          <t>US $1.31</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2938,12 +2942,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045767491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045527491</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2953,25 +2957,25 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['./img/8191641045767491/img_0.png']</t>
+          <t>['./img/8191641045527491/img_0.png']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1 set, China</t>
+          <t>black 1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8191641045747491</t>
+          <t>8191641045497491</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2981,27 +2985,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Online Shopping Malls</t>
+          <t>QIWEI Store</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024 Men's Messenger Bag Crossbody Shoulder Bags M - black</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$5.77</t>
-        </is>
-      </c>
+          <t>Multiple Products</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>$6.03</t>
+          <t>US $4.87</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045747491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045497491</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>LP00671472073489</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3026,25 +3026,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['./img/8191641045747491/img_0.png']</t>
+          <t>['./img/8191641045497491/img_0.png', './img/8191641045497491/img_1.png']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8191641045727491</t>
+          <t>8191641045477491</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3054,17 +3050,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gold New 3C Store</t>
+          <t>M-B-S Go Up Store</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>45W For Samsung Charger USB-C Super Fast Charger T - US, black</t>
+          <t>Strap for Mi Band 5 6 7 8 9 Metal Milanese Bracele - Milanese CS Black, for mi band 6, CHINA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>$4.63</t>
+          <t>US $3.55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3074,7 +3070,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>$4.70</t>
+          <t>US $3.79</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3084,12 +3080,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045727491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045477491</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>LR152035762CN</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3099,955 +3095,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['./img/8191641045727491/img_0.png']</t>
+          <t>['./img/8191641045477491/img_0.png']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>US, black</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>8191641045707491</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Cohai Store</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2M/1M Flexible Spiral Cable Wire Protector Cable O - 16mmx1m Black</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$1.94</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>$2.04</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045707491</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>LQ835416399CN</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Accepted for transportation by postal service</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 23:48 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 20:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>['./img/8191641045707491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>16mmx1m Black</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>8191641045687491</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Vencirart Store</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Cartoon Programming Stickers IT Developers Usage L - 50pcs, CHINA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$2.52</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>$2.69</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045687491</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>LP00671472073489</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Leaving from departure country/region</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>['./img/8191641045687491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>50pcs, CHINA</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>8191641045667491</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Motolight Store</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Newest Motorcycle hand Helmet bag Motocross Racing</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$16.10</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>$16.84</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045667491</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>LR152035762CN</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Accepted for transportation by postal service</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>['./img/8191641045667491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>8191641045647491</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Star-ACE Store</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Magnesium Powder Bag Waterproof Polyester Chalk Ba - Black</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>$4.34</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>$4.59</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045647491</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>LR152035762CN</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Accepted for transportation by postal service</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>['./img/8191641045647491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>8191641045627491</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Shop1103846736 Store</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Thin Credit Card Holder PU Leather Black Carbon Fi - Black</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>$3.33</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>$3.52</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045627491</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>LP00671472073489</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Leaving from departure country/region</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>['./img/8191641045627491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>8191641045607491</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>QIHE JEWELRY Boholand Store</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Interesting Goose Enamel Pin Cartoon Animal Rose H - XZ9159</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>$1.36</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>$2.68</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045607491</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>LR152035762CN</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Accepted for transportation by postal service</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>['./img/8191641045607491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>XZ9159</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>8191641045587491</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Shop1103311340 Store</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Car Accessorie Car Fragrance Gypsum Cute Anime Swi - Duck 1</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>$2.48</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>$2.61</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045587491</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>LP00671472073489</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Leaving from departure country/region</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>['./img/8191641045587491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Duck 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>8191641045567491</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>10Seven Store</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Tire Valve Dust Caps Stem Covers Plastic Car Wheel - 100Pcs Black</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>$1.95</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>$2.06</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045567491</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>LR152035762CN</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Accepted for transportation by postal service</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>['./img/8191641045567491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>100Pcs Black</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>8191641045547491</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Shop1102822769 Store</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Stainless Steel rotating Bead Rings Anti Anxiety R - Silver</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>$1.18</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>$1.25</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045547491</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>LP00671472073489</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Leaving from departure country/region</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 08:44 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 06:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 20, 02:35 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>['./img/8191641045547491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>8191641045527491</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Speeding and Running Digital Store</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>90 Degree Left Right Up Down Angled USB 3.0 A Male - black 1</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>$1.23</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>$1.31</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045527491</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>LR152035762CN</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Accepted for transportation by postal service</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>['./img/8191641045527491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>black 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>8191641045497491</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>QIWEI Store</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Multiple Products</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>$4.87</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045497491</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>LR152035762CN</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Accepted for transportation by postal service</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>['./img/8191641045497491/img_0.png', './img/8191641045497491/img_1.png']</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>8191641045477491</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>M-B-S Go Up Store</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Strap for Mi Band 5 6 7 8 9 Metal Milanese Bracele - Milanese CS Black, for mi band 6, CHINA</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>$3.55</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>$3.79</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045477491</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>LR152035762CN</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Accepted for transportation by postal service</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 18, 00:56 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>['./img/8191641045477491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
-        <is>
           <t>Milanese CS Black, for mi band 6, CHINA</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>8191641045457491</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Aug 14, 2024</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>GTWIN Phone Accessories Store</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>20 in 1/10 in 1 Digital Camera Headset Mobile Phon - 7 in 1 Grak Gray</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>$3.51</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>$3.70</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045457491</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>420331729212490362719153543181</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Leaving from departure country/region</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:29 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 07:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 06:49 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>['./img/8191641045457491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>7 in 1 Grak Gray</t>
         </is>
       </c>
     </row>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,27 +513,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8192146329897491</t>
+          <t>8192700828887491</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jimi Shoes Store</t>
+          <t>Shop1103796085 Store</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2Pair Silicone Metatarsal Pads for Shoes Non-Slip  - 2Pairs-Beige, CHINA</t>
+          <t>NEW precision screwdriver 115-in-1 set multifuncti - 115 in 1 grey</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>US $1.99</t>
+          <t>US $4.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,70 +543,66 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>US $2.04</t>
+          <t>US $4.47</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329897491</t>
-        </is>
-      </c>
+          <t>To ship</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>No tracking number</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>No tracking status</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>No tracking process</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['./img/8192146329897491/img_0.png']</t>
+          <t>['./img/8192700828887491/img_0.png']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2Pairs-Beige, CHINA</t>
+          <t>115 in 1 grey</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8192146329877491</t>
+          <t>8192700829537491</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Naisii Store</t>
+          <t>Shop1103414099 Store</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>High Heels Non-slip Front Sole Pads Women's Sponge - 4pcs-skin tone</t>
+          <t>USB Mini Massage Gun Fascia Machine Muscle Relaxat - black, Type C Charge</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>US $2.23</t>
+          <t>US $4.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -616,7 +612,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>US $2.32</t>
+          <t>US $4.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -626,70 +622,70 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329877491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829537491</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['./img/8192146329877491/img_0.png']</t>
+          <t>['./img/8192700829537491/img_0.png']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>4pcs-skin tone</t>
+          <t>black, Type C Charge</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8192146329857491</t>
+          <t>8192700829517491</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pyke Tamia Store</t>
+          <t>World Health-Care Store</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4pcs Sandals Anti-slip Stickers Leather Forefoot P - Apricot-3mm-2 pairs, CHINA</t>
+          <t>Magnetic Car Phone Holder Stand Magnet Car Mount G - Not Curved Surface</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>US $2.23</t>
+          <t>US $5.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>US $2.22</t>
+          <t>US $10.75</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -699,60 +695,60 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329857491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829517491</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>LP00676206395305</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:20 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:23 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['./img/8192146329857491/img_0.png']</t>
+          <t>['./img/8192700829517491/img_0.png']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Apricot-3mm-2 pairs, CHINA</t>
+          <t>Not Curved Surface</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8192146329837491</t>
+          <t>8192700829497491</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EYUD Official Store Store</t>
+          <t>Shop5131069 Store</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Half Insoles for Shoes Inserts Forefoot Insert Non - Women Beige Round, CHINA</t>
+          <t>Fashion Bring Shockproof Magnetic Metal With Ring  - Black, Huawei Y9 prime 2019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>US $1.58</t>
+          <t>US $3.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -762,7 +758,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>US $1.65</t>
+          <t>US $2.79</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -772,60 +768,60 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329837491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829497491</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>LP00676203592176</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:34 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:52 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['./img/8192146329837491/img_0.png']</t>
+          <t>['./img/8192700829497491/img_0.png']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Women Beige Round, CHINA</t>
+          <t>Black, Huawei Y9 prime 2019</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8192146329817491</t>
+          <t>8192700829477491</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Worldmuma Store</t>
+          <t>Shop1103881330 Store</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NEW Car Repair Tool Kit 46/53 Piece/Set 1/4-Inch S - 46 PCS Black</t>
+          <t>2024Creative Intelligent Auto PIR Motion Sensor LE - Walnut color</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>US $7.77</t>
+          <t>US $3.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -835,7 +831,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>US $8.04</t>
+          <t>US $3.62</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -845,60 +841,60 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329817491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829477491</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['./img/8192146329817491/img_0.png']</t>
+          <t>['./img/8192700829477491/img_0.png']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>46 PCS Black</t>
+          <t>Walnut color</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8192146329797491</t>
+          <t>8192700829457491</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Global Tool Wholesale Store</t>
+          <t>OfficeAccessories Store</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Magnetic Screwdriver Set 63 In 1 Kit Bits Precisio - 25-1</t>
+          <t>Clear Soft TPU Earphone Case with Lanyard Strap fo - For Airpods Pro</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>US $1.79</t>
+          <t>US $1.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -908,7 +904,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>US $1.86</t>
+          <t>US $1.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -918,60 +914,60 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329797491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829457491</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>LP00676205987122</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:28 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 03:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 02:09 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['./img/8192146329797491/img_0.png']</t>
+          <t>['./img/8192700829457491/img_0.png']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>25-1</t>
+          <t>For Airpods Pro</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8192146329777491</t>
+          <t>8192700829437491</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ZIShan Store</t>
+          <t>A XIONG GU Official Store</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11/18/26/36/41PCS Car Terminal Removal Connector E - 41pcs</t>
+          <t>Hard Protective Matte Case for Samsung Galaxy S23  - black, for Galaxy A54 5G</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>US $3.21</t>
+          <t>US $3.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -981,7 +977,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>US $3.29</t>
+          <t>US $3.05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -991,60 +987,60 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329777491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829437491</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>LP00676882233107</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:08 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:02 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['./img/8192146329777491/img_0.png']</t>
+          <t>['./img/8192700829437491/img_0.png']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>41pcs</t>
+          <t>black, for Galaxy A54 5G</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8192146329757491</t>
+          <t>8192700829417491</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dvieuhfgwnvov Store</t>
+          <t>Shop1102982929 Store</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10Pairs Sports Men Socks Printed Maple Leaf Colorf - 10 pairs</t>
+          <t>Mop and Broom Organizer Mop Holder Rack Mop Holder - 4 Hooks Grey</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>US $4.62</t>
+          <t>US $7.51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1054,7 +1050,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>US $4.78</t>
+          <t>US $8.05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1064,60 +1060,60 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329757491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829417491</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['./img/8192146329757491/img_0.png']</t>
+          <t>['./img/8192700829417491/img_0.png']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>10 pairs</t>
+          <t>4 Hooks Grey</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8192146329737491</t>
+          <t>8192700829397491</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1768 Store</t>
+          <t>SDYIGOE SSD Store</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bamboo Slub Couple Bracelet for Lover Women Men Ha - 2Pcs Couple Bracelet</t>
+          <t>Laptop keyboard Cover Protector Skin For LENOVO LE - Gradient Pink</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>US $2.71</t>
+          <t>US $4.15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1127,7 +1123,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>US $2.83</t>
+          <t>US $3.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1137,70 +1133,70 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329737491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829397491</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['./img/8192146329737491/img_0.png']</t>
+          <t>['./img/8192700829397491/img_0.png']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2Pcs Couple Bracelet</t>
+          <t>Gradient Pink</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8192146329717491</t>
+          <t>8192700829377491</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AOTOLK Factory Store</t>
+          <t>Pet Clothing Store</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5 Pairs Women Socks Cartoon Cat Cute Funny Persona - 5 Pairs B-Christmas, EUR35-40(US 5-8)</t>
+          <t>Smart Cat Rolling Ball Toys Rechargeable Cat Toys  - BLUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>US $5.25</t>
+          <t>US $2.63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>US $5.49</t>
+          <t>US $4.85</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1210,60 +1206,60 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329717491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829377491</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>LP00676202351844</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 1, 14:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 18:33 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 03:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 06:06 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:00 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['./img/8192146329717491/img_0.png']</t>
+          <t>['./img/8192700829377491/img_0.png']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>5 Pairs B-Christmas, EUR35-40(US 5-8)</t>
+          <t>BLUE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8192146329697491</t>
+          <t>8192700829357491</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aug 27, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trend Sportwear Store</t>
+          <t>Daily Necessities1 Store</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Camo Running Shorts Men Gym Sports Shorts 2 In 1 Q - style1 All Black, XXXL(195cm 90kg)</t>
+          <t>Strong Magnetic Hook Wall-mounted Anti-lost Magnet - 8Pcs-(4Pairs)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>US $7.38</t>
+          <t>US $1.72</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1273,7 +1269,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>US $7.64</t>
+          <t>US $1.64</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1283,60 +1279,60 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192146329697491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829357491</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 2, 02:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:19 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['./img/8192146329697491/img_0.png']</t>
+          <t>['./img/8192700829357491/img_0.png']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>style1 All Black, XXXL(195cm 90kg)</t>
+          <t>8Pcs-(4Pairs)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8191641046497491</t>
+          <t>8192700829337491</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DearBeauty Exclusive Store</t>
+          <t>Welcome YanyanQ Store</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3 Layers Soft Brace Neck Massager Air Inflatable C - Blue</t>
+          <t>New Digital Display Car With 4usb Car Charger 66w  - A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>US $4.62</t>
+          <t>US $1.84</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1346,7 +1342,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>US $4.88</t>
+          <t>US $1.77</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1356,60 +1352,60 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046497491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829337491</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>LP00677553384483</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:31 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:15 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:50 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['./img/8191641046497491/img_0.png']</t>
+          <t>['./img/8192700829337491/img_0.png']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8191641046477491</t>
+          <t>8192700829317491</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lowball Lover Store</t>
+          <t>Dnyana-pet-store Store</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4PCS Butterfly Screen Protectors for Samsung Galax - Galaxy S21 Ultra, 4PCS</t>
+          <t>2pcs/set Car Rearview Mirror Reflective Sticker Sa - WHITE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>US $4.25</t>
+          <t>US $1.20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1419,7 +1415,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>US $4.50</t>
+          <t>US $1.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1429,60 +1425,60 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046477491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829317491</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['./img/8191641046477491/img_0.png']</t>
+          <t>['./img/8192700829317491/img_0.png']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra, 4PCS</t>
+          <t>WHITE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8191641046457491</t>
+          <t>8192700829297491</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Freemoto Store</t>
+          <t>Great 3C Store</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MOTOWOLF Universal Motorcycle Full Face Helmet Shi - MDL1912B</t>
+          <t>3Pcs Anti-Spy Hydrogel Film for Samsung S23 S21 S2 - For Samsung S23 FE, Privacy Hydrogel, 3Pcs</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>US $6.08</t>
+          <t>US $2.77</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1492,7 +1488,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>US $6.42</t>
+          <t>US $2.66</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1502,60 +1498,60 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046457491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829297491</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>LP00676886432209</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:40 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:52 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['./img/8191641046457491/img_0.png']</t>
+          <t>['./img/8192700829297491/img_0.png']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>MDL1912B</t>
+          <t>For Samsung S23 FE, Privacy Hydrogel, 3Pcs</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8191641046397491</t>
+          <t>8192700829277491</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Super Factory Digitaling Store</t>
+          <t>PUGTOP Official Store</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8 in 2 USB C Hub USB Splitter USB Extender with 4  - 8 IN 2</t>
+          <t>Car DVR Camera Recorder HD mini Camera WIFI USB Da - USB Version, None</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>US $8.65</t>
+          <t>US $9.71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1565,7 +1561,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>US $8.77</t>
+          <t>US $9.23</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1575,60 +1571,60 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046397491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829277491</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>LP00676202584973</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:05 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['./img/8191641046397491/img_0.png']</t>
+          <t>['./img/8192700829277491/img_0.png']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>8 IN 2</t>
+          <t>USB Version, None</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8191641046357491</t>
+          <t>8192700829257491</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Morning Chan Store</t>
+          <t>Top Phone Case Store</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nintendo Switch Power Adapter and Switch Lite Plug - black</t>
+          <t>Van Gogh Sunflowers The Starry Night Art Aesthetic - 03, for iPhone 13Pro Max</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>US $9.04</t>
+          <t>US $2.25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1638,7 +1634,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>US $9.55</t>
+          <t>US $2.08</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1648,60 +1644,60 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046357491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829257491</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['./img/8191641046357491/img_0.png']</t>
+          <t>['./img/8192700829257491/img_0.png']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>03, for iPhone 13Pro Max</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8191641046317491</t>
+          <t>8192700829237491</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KVM And HDMI 5 Store</t>
+          <t>Ali - Health Care Store</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wireless HDMI Transmitter and Receiver 30 Meter Pl - 1TX -1RX-30M-1080P</t>
+          <t>200pcs/set Face Skin Care Acne Pimple Patch Invisi - 200pc, CN</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>US $49.02</t>
+          <t>US $1.67</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1711,7 +1707,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>US $52.29</t>
+          <t>US $1.55</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1721,60 +1717,60 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046317491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829237491</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>LP00676203095097</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:19 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:37 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['./img/8191641046317491/img_0.png']</t>
+          <t>['./img/8192700829237491/img_0.png']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1TX -1RX-30M-1080P</t>
+          <t>200pc, CN</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8191641046297491</t>
+          <t>8192700829217491</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Newshark Store</t>
+          <t>Lulu Makeup Brush Store</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dustproof Cover Impact Drill Dustproof Household E - dust cover</t>
+          <t>4pcs/set French Braid Tool Loop Elastic Hair Bands - Purple</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>US $1.79</t>
+          <t>US $1.39</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1784,7 +1780,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>US $1.90</t>
+          <t>US $1.34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1794,60 +1790,60 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046297491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829217491</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['./img/8191641046297491/img_0.png']</t>
+          <t>['./img/8192700829217491/img_0.png']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>dust cover</t>
+          <t>Purple</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8191641046277491</t>
+          <t>8192700829197491</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HDmatters Official Store</t>
+          <t>007 Auto Store</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HDMI 2.0 Switch 4K 60Hz HDR Switch HDMI box HDMI 3 - 5X1, Check Note</t>
+          <t>2PCS Car Body Reflective Stickers Side Safety Warn - WHITE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>US $16.11</t>
+          <t>US $1.74</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1857,7 +1853,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>US $17.02</t>
+          <t>US $1.68</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1867,60 +1863,60 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046277491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829197491</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['./img/8191641046277491/img_0.png']</t>
+          <t>['./img/8192700829197491/img_0.png']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>5X1, Check Note</t>
+          <t>WHITE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8191641046257491</t>
+          <t>8192700829177491</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HIPICOK Official Store</t>
+          <t>Chinese Hot Sale Store</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HiPiCok Water Pump 19 Liters Water Dispenser for B - Black Pump and Base</t>
+          <t>MINI Milk Frother USB Rechargeable 3 Speeds Foam M - black</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>US $13.44</t>
+          <t>US $3.57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1930,7 +1926,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>US $14.20</t>
+          <t>US $3.42</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1940,60 +1936,60 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046257491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829177491</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['./img/8191641046257491/img_0.png']</t>
+          <t>['./img/8192700829177491/img_0.png']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Black Pump and Base</t>
+          <t>black</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8191641046217491</t>
+          <t>8192700829157491</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jayz Car Dropshipping Store</t>
+          <t>Lucky Cats Store</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2pcs Non-slip Car Water Cup Pad Diamond Rhinestone - 4PCS, China</t>
+          <t>DC 3V-5V USB Micro Submersible Mini Water Pump for - WHITE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>US $2.50</t>
+          <t>US $1.73</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2003,7 +1999,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>US $2.58</t>
+          <t>US $1.60</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2013,70 +2009,70 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046217491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829157491</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>LP00677550300051</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:07 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:02 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['./img/8191641046217491/img_0.png']</t>
+          <t>['./img/8192700829157491/img_0.png']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>4PCS, China</t>
+          <t>WHITE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8191641046197491</t>
+          <t>8192700829137491</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ALANGDUO 3C TECH Store</t>
+          <t>srnubi Official Store</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-5PCS Hydrogel Film For Redmi Watch 4 watch4 HD S - 5PCS, For Redmi Watch4</t>
+          <t>Srnubi Android 12 Carplay Car Radio for Hyundai So - T10-2 Fan-Camera, CHINA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>US $1.69</t>
+          <t>US $160.62</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>US $3.60</t>
+          <t>US $152.57</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2086,60 +2082,60 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046197491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829137491</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>420331729212490362719154028359</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Package delivered</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 26, 14:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 26, 13:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;New delivery attempt is ongoing&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 24, 11:58 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:38 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 13, 17:28 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 13, 17:22 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['./img/8191641046197491/img_0.png']</t>
+          <t>['./img/8192700829137491/img_0.png']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>5PCS, For Redmi Watch4</t>
+          <t>T10-2 Fan-Camera, CHINA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8191641046117491</t>
+          <t>8192700829117491</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ugreen Official Store</t>
+          <t>YHDZ Store</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UGREEN USB C to USB Type C 100W Fast Charging For  - 2M 2PCS, 0.5 to 3m, CHINA</t>
+          <t>6PCS Memory Foam Ear Tips for Samsung Galaxy Buds  - black, S</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>US $11.45</t>
+          <t>US $3.78</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2149,7 +2145,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>US $11.96</t>
+          <t>US $3.67</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2159,60 +2155,60 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046117491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829117491</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['./img/8191641046117491/img_0.png']</t>
+          <t>['./img/8192700829117491/img_0.png']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2M 2PCS, 0.5 to 3m, CHINA</t>
+          <t>black, S</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8191641046057491</t>
+          <t>8192700829097491</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Trig Rain Official Store</t>
+          <t>Ugreen Official Store</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Earphone Ear Pads For Logitech G733 G 733 Earpads  - Grey black-1pcs</t>
+          <t>UGREEN 100W USB Type C To USB C Cable For Macbook  - 60W PVC Black, 2m</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>US $1.94</t>
+          <t>US $3.78</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2222,7 +2218,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>US $1.96</t>
+          <t>US $3.62</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2232,66 +2228,70 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046057491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829097491</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['./img/8191641046057491/img_0.png']</t>
+          <t>['./img/8192700829097491/img_0.png']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Grey black-1pcs</t>
+          <t>60W PVC Black, 2m</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8191641046017491</t>
+          <t>8192700829077491</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bene Jewelry Store</t>
+          <t>WENBIN Phone Accessories Store</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Multiple Products</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Case For Samsung S24 S23 S22 Ultra FE A55 A54 A15  - Dark Grey, Samsung S23 Plus</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>US $3.82</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>US $3.85</t>
+          <t>US $3.71</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2301,62 +2301,70 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641046017491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829077491</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>420331729212490362719153543181</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Package delivered</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 26, 14:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 26, 13:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;New delivery attempt is ongoing&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 24, 11:58 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['./img/8191641046017491/img_0.png', './img/8191641046017491/img_1.png', './img/8191641046017491/img_2.png']</t>
+          <t>['./img/8192700829077491/img_0.png']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Dark Grey, Samsung S23 Plus</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8191641045977491</t>
+          <t>8192700829057491</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Miss Zoe Official Store</t>
+          <t>Shop1103998831 Store</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Multiple Products</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>Magnetic Ring IPhone Holder For MagSafe Removable  - Gray</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>US $2.91</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>US $3.27</t>
+          <t>US $2.79</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2366,56 +2374,60 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045977491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829057491</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['./img/8191641045977491/img_0.png', './img/8191641045977491/img_1.png', './img/8191641045977491/img_2.png']</t>
+          <t>['./img/8192700829057491/img_0.png']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8191641045917491</t>
+          <t>8192700829037491</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ramulus Store</t>
+          <t>yuna yuan Store</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cute Alien Enamel Pin Sunflowers Brooch Pines Lape - 1</t>
+          <t>Anti-Shock Strong Fited Cover Cases for Samsung Ga - PURPLE, for Galaxy S23 FE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>US $1.22</t>
+          <t>US $4.36</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2425,7 +2437,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>US $1.30</t>
+          <t>US $4.22</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2435,60 +2447,60 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045917491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829037491</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>LP00676203101060</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:13 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:03 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['./img/8191641045917491/img_0.png']</t>
+          <t>['./img/8192700829037491/img_0.png']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PURPLE, for Galaxy S23 FE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8191641045817491</t>
+          <t>8192700829017491</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GAFASTWO Official Store</t>
+          <t>City of Lights Store</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Anti-sunburn Sleeve Summer New Loose Breathable UV - White, One Size</t>
+          <t>10M USB/Battery Power Ball LED String Lights Garla - White Ball, 6M 40Leds, USB Plug</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>US $3.55</t>
+          <t>US $4.32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2498,7 +2510,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>US $3.59</t>
+          <t>US $4.19</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2508,60 +2520,60 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045817491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829017491</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>LP00671472073489</t>
+          <t>LP00676884483838</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Package delivered</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Package delivered&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 12:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived in transit country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 09:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from customs&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 07:53 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 09:28 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 06:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 03:01 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['./img/8191641045817491/img_0.png']</t>
+          <t>['./img/8192700829017491/img_0.png']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>White, One Size</t>
+          <t>White Ball, 6M 40Leds, USB Plug</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8191641045707491</t>
+          <t>8192700828997491</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cohai Store</t>
+          <t>QST EXPress-02</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2M/1M Flexible Spiral Cable Wire Protector Cable O - 16mmx1m Black</t>
+          <t>Digital Battery Tester analyzer Testing Meter LCD  - Black</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>US $1.94</t>
+          <t>US $2.59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2571,7 +2583,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>US $2.04</t>
+          <t>US $2.52</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2581,60 +2593,60 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045707491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828997491</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>LQ835416399CN</t>
+          <t>LP00676881021592</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Delivery update&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at line-haul office&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 29, 06:00 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 23, 01:25 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:12 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:19 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:02 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['./img/8191641045707491/img_0.png']</t>
+          <t>['./img/8192700828997491/img_0.png']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>16mmx1m Black</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8191641045667491</t>
+          <t>8192700828977491</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Motolight Store</t>
+          <t>BOWVER E-PARTS Store</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Newest Motorcycle hand Helmet bag Motocross Racing</t>
+          <t>(NO Tempered Glass) Soft TPU Nano-coated Screen Pr - 9 inch 2PCS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>US $16.10</t>
+          <t>US $7.99</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2644,7 +2656,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>US $16.84</t>
+          <t>US $7.75</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2654,56 +2666,60 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045667491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828977491</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>LP00676202885460</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 03:32 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 02:18 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:29 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['./img/8191641045667491/img_0.png']</t>
+          <t>['./img/8192700828977491/img_0.png']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>9 inch 2PCS</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8191641045647491</t>
+          <t>8192700828957491</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Star-ACE Store</t>
+          <t>Xiohe Store</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Magnesium Powder Bag Waterproof Polyester Chalk Ba - Black</t>
+          <t>Luxury Business Man Phone Case for Honor X6a Plus  - black, Honor X6a Plus</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>US $4.34</t>
+          <t>US $3.01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2713,7 +2729,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>US $4.59</t>
+          <t>US $2.77</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2723,62 +2739,58 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045647491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828957491</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>LP00676202885459</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:58 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['./img/8191641045647491/img_0.png']</t>
+          <t>['./img/8192700828957491/img_0.png']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>black, Honor X6a Plus</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8191641045607491</t>
+          <t>8192700828927491</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>QIHE JEWELRY Boholand Store</t>
+          <t>Sykiila Official Store</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interesting Goose Enamel Pin Cartoon Animal Rose H - XZ9159</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>US $1.36</t>
-        </is>
-      </c>
+          <t>Multiple Products</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
           <t>2</t>
@@ -2786,7 +2798,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>US $2.68</t>
+          <t>US $4.04</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2796,60 +2808,56 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045607491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828927491</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['./img/8191641045607491/img_0.png']</t>
+          <t>['./img/8192700828927491/img_0.png', './img/8192700828927491/img_1.png']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>XZ9159</t>
-        </is>
-      </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8191641045567491</t>
+          <t>8192700828907491</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10Seven Store</t>
+          <t>ZZXX Wallet Case Store</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tire Valve Dust Caps Stem Covers Plastic Car Wheel - 100Pcs Black</t>
+          <t>Wallet Magnetic Flip With Card Slot Kickstand Leat - Black, Galaxy S20 FE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>US $1.95</t>
+          <t>US $3.31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2859,7 +2867,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>US $2.06</t>
+          <t>US $3.18</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2869,60 +2877,60 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045567491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828907491</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>LP00676885772985</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:26 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:47 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:40 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['./img/8191641045567491/img_0.png']</t>
+          <t>['./img/8192700828907491/img_0.png']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>100Pcs Black</t>
+          <t>Black, Galaxy S20 FE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8191641045527491</t>
+          <t>8192700828867491</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Speeding and Running Digital Store</t>
+          <t>Qukam Stylus Store</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>90 Degree Left Right Up Down Angled USB 3.0 A Male - black 1</t>
+          <t>Stylus Pen for Apple iPad Palm Rejection Power Dis - white</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>US $1.23</t>
+          <t>US $4.24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2932,7 +2940,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>US $1.31</t>
+          <t>US $4.08</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2942,66 +2950,70 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045527491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828867491</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['./img/8191641045527491/img_0.png']</t>
+          <t>['./img/8192700828867491/img_0.png']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>black 1</t>
+          <t>white</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8191641045497491</t>
+          <t>8192700828847491</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>QIWEI Store</t>
+          <t>Aurora Shopping Store</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Multiple Products</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>Happy Baby Duck Crossbody Lanyard Silicone Phone C - White, Case &amp; Strap, CHINA, Galaxy S23 Plus</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>US $3.41</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>US $4.87</t>
+          <t>US $3.14</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3011,56 +3023,60 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045497491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828847491</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>LP00677549521239</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:24 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:40 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:52 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['./img/8191641045497491/img_0.png', './img/8191641045497491/img_1.png']</t>
+          <t>['./img/8192700828847491/img_0.png']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>White, Case &amp; Strap, CHINA, Galaxy S23 Plus</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8191641045477491</t>
+          <t>8192700828827491</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aug 14, 2024</t>
+          <t>Sep 11, 2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>M-B-S Go Up Store</t>
+          <t>SinceJuly Homelife Store</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Strap for Mi Band 5 6 7 8 9 Metal Milanese Bracele - Milanese CS Black, for mi band 6, CHINA</t>
+          <t>Xiaomi Ultrasonic Glasses Cleaning 45KHZ Ultrasoun - Pink</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>US $3.55</t>
+          <t>US $11.59</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3070,7 +3086,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>US $3.79</t>
+          <t>US $10.67</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3080,33 +3096,106 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8191641045477491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828827491</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>LR152035762CN</t>
+          <t>LP00676202608950</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 31, 02:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Accepted for transportation by postal service&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 20:16 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Aug 19, 19:46 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:17 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:02 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['./img/8191641045477491/img_0.png']</t>
+          <t>['./img/8192700828827491/img_0.png']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Milanese CS Black, for mi band 6, CHINA</t>
+          <t>Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>8192700828807491</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sep 11, 2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>KEDE Bathroom Accessories Store</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Motorcycle Helmet Holder Wall Mount 180°Rotation F - Black</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>US $9.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>US $8.94</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Awaiting delivery</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828807491</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>LP00676885173865</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 06:08 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:52 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>['./img/8192700828807491/img_0.png']</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Black</t>
         </is>
       </c>
     </row>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8192700828887491</t>
+          <t>8192700829537491</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -523,17 +523,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shop1103796085 Store</t>
+          <t>Shop1103414099 Store</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NEW precision screwdriver 115-in-1 set multifuncti - 115 in 1 grey</t>
+          <t>USB Mini Massage Gun Fascia Machine Muscle Relaxat - black, Type C Charge</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>US $4.66</t>
+          <t>US $4.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,46 +543,50 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>US $4.47</t>
+          <t>US $4.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>To ship</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Awaiting delivery</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829537491</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No tracking number</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>No tracking status</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>No tracking process</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['./img/8192700828887491/img_0.png']</t>
+          <t>['./img/8192700829537491/img_0.png']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>115 in 1 grey</t>
+          <t>black, Type C Charge</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8192700829537491</t>
+          <t>8192700829517491</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -592,27 +596,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shop1103414099 Store</t>
+          <t>World Health-Care Store</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>USB Mini Massage Gun Fascia Machine Muscle Relaxat - black, Type C Charge</t>
+          <t>Magnetic Car Phone Holder Stand Magnet Car Mount G - Not Curved Surface</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>US $4.17</t>
+          <t>US $5.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>US $4.00</t>
+          <t>US $10.75</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -622,40 +626,40 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829537491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829517491</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['./img/8192700829537491/img_0.png']</t>
+          <t>['./img/8192700829517491/img_0.png']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>black, Type C Charge</t>
+          <t>Not Curved Surface</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8192700829517491</t>
+          <t>8192700829497491</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -665,27 +669,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>World Health-Care Store</t>
+          <t>Shop5131069 Store</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Magnetic Car Phone Holder Stand Magnet Car Mount G - Not Curved Surface</t>
+          <t>Fashion Bring Shockproof Magnetic Metal With Ring  - Black, Huawei Y9 prime 2019</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>US $5.60</t>
+          <t>US $3.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>US $10.75</t>
+          <t>US $2.79</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -695,40 +699,40 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829517491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829497491</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>LP00676206395305</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:20 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:23 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['./img/8192700829517491/img_0.png']</t>
+          <t>['./img/8192700829497491/img_0.png']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Not Curved Surface</t>
+          <t>Black, Huawei Y9 prime 2019</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8192700829497491</t>
+          <t>8192700829477491</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -738,17 +742,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shop5131069 Store</t>
+          <t>Shop1103881330 Store</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fashion Bring Shockproof Magnetic Metal With Ring  - Black, Huawei Y9 prime 2019</t>
+          <t>2024Creative Intelligent Auto PIR Motion Sensor LE - Walnut color</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>US $3.03</t>
+          <t>US $3.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -758,7 +762,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>US $2.79</t>
+          <t>US $3.62</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -768,40 +772,40 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829497491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829477491</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>LP00676203592176</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:34 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:50 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:52 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['./img/8192700829497491/img_0.png']</t>
+          <t>['./img/8192700829477491/img_0.png']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Black, Huawei Y9 prime 2019</t>
+          <t>Walnut color</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8192700829477491</t>
+          <t>8192700829457491</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -811,17 +815,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shop1103881330 Store</t>
+          <t>OfficeAccessories Store</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024Creative Intelligent Auto PIR Motion Sensor LE - Walnut color</t>
+          <t>Clear Soft TPU Earphone Case with Lanyard Strap fo - For Airpods Pro</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>US $3.78</t>
+          <t>US $1.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -831,7 +835,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>US $3.62</t>
+          <t>US $1.54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -841,40 +845,40 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829477491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829457491</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['./img/8192700829477491/img_0.png']</t>
+          <t>['./img/8192700829457491/img_0.png']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Walnut color</t>
+          <t>For Airpods Pro</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8192700829457491</t>
+          <t>8192700829437491</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -884,17 +888,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OfficeAccessories Store</t>
+          <t>A XIONG GU Official Store</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Clear Soft TPU Earphone Case with Lanyard Strap fo - For Airpods Pro</t>
+          <t>Hard Protective Matte Case for Samsung Galaxy S23  - black, for Galaxy A54 5G</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>US $1.61</t>
+          <t>US $3.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -904,7 +908,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>US $1.54</t>
+          <t>US $3.05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -914,40 +918,40 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829457491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829437491</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>LP00676205987122</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:28 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 03:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 02:09 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['./img/8192700829457491/img_0.png']</t>
+          <t>['./img/8192700829437491/img_0.png']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>For Airpods Pro</t>
+          <t>black, for Galaxy A54 5G</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8192700829437491</t>
+          <t>8192700829417491</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -957,17 +961,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A XIONG GU Official Store</t>
+          <t>Shop1102982929 Store</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hard Protective Matte Case for Samsung Galaxy S23  - black, for Galaxy A54 5G</t>
+          <t>Mop and Broom Organizer Mop Holder Rack Mop Holder - 4 Hooks Grey</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>US $3.15</t>
+          <t>US $7.51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -977,7 +981,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>US $3.05</t>
+          <t>US $8.05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -987,40 +991,40 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829437491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829417491</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>LP00676882233107</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:08 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:02 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['./img/8192700829437491/img_0.png']</t>
+          <t>['./img/8192700829417491/img_0.png']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>black, for Galaxy A54 5G</t>
+          <t>4 Hooks Grey</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8192700829417491</t>
+          <t>8192700829397491</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1030,17 +1034,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Shop1102982929 Store</t>
+          <t>SDYIGOE SSD Store</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mop and Broom Organizer Mop Holder Rack Mop Holder - 4 Hooks Grey</t>
+          <t>Laptop keyboard Cover Protector Skin For LENOVO LE - Gradient Pink</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>US $7.51</t>
+          <t>US $4.15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1050,7 +1054,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>US $8.05</t>
+          <t>US $3.82</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1060,7 +1064,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829417491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829397491</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1070,30 +1074,30 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['./img/8192700829417491/img_0.png']</t>
+          <t>['./img/8192700829397491/img_0.png']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>4 Hooks Grey</t>
+          <t>Gradient Pink</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8192700829397491</t>
+          <t>8192700829377491</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1103,27 +1107,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SDYIGOE SSD Store</t>
+          <t>Pet Clothing Store</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Laptop keyboard Cover Protector Skin For LENOVO LE - Gradient Pink</t>
+          <t>Smart Cat Rolling Ball Toys Rechargeable Cat Toys  - BLUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>US $4.15</t>
+          <t>US $2.63</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>US $3.82</t>
+          <t>US $4.85</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1133,40 +1137,40 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829397491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829377491</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['./img/8192700829397491/img_0.png']</t>
+          <t>['./img/8192700829377491/img_0.png']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Gradient Pink</t>
+          <t>BLUE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8192700829377491</t>
+          <t>8192700829357491</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1176,27 +1180,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pet Clothing Store</t>
+          <t>Daily Necessities1 Store</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Smart Cat Rolling Ball Toys Rechargeable Cat Toys  - BLUE</t>
+          <t>Strong Magnetic Hook Wall-mounted Anti-lost Magnet - 8Pcs-(4Pairs)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>US $2.63</t>
+          <t>US $1.72</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>US $4.85</t>
+          <t>US $1.64</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1206,40 +1210,40 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829377491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829357491</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>LP00676202351844</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 06:06 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:00 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['./img/8192700829377491/img_0.png']</t>
+          <t>['./img/8192700829357491/img_0.png']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>BLUE</t>
+          <t>8Pcs-(4Pairs)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8192700829357491</t>
+          <t>8192700829337491</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1249,17 +1253,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Daily Necessities1 Store</t>
+          <t>Welcome YanyanQ Store</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Strong Magnetic Hook Wall-mounted Anti-lost Magnet - 8Pcs-(4Pairs)</t>
+          <t>New Digital Display Car With 4usb Car Charger 66w  - A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>US $1.72</t>
+          <t>US $1.84</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1269,7 +1273,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>US $1.64</t>
+          <t>US $1.77</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1279,40 +1283,40 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829357491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829337491</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['./img/8192700829357491/img_0.png']</t>
+          <t>['./img/8192700829337491/img_0.png']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>8Pcs-(4Pairs)</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8192700829337491</t>
+          <t>8192700829317491</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1322,17 +1326,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Welcome YanyanQ Store</t>
+          <t>Dnyana-pet-store Store</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>New Digital Display Car With 4usb Car Charger 66w  - A</t>
+          <t>2pcs/set Car Rearview Mirror Reflective Sticker Sa - WHITE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>US $1.84</t>
+          <t>US $1.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1342,7 +1346,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>US $1.77</t>
+          <t>US $1.14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1352,40 +1356,40 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829337491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829317491</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LP00677553384483</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:31 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:15 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:50 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['./img/8192700829337491/img_0.png']</t>
+          <t>['./img/8192700829317491/img_0.png']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>WHITE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8192700829317491</t>
+          <t>8192700829297491</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1395,17 +1399,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dnyana-pet-store Store</t>
+          <t>Great 3C Store</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2pcs/set Car Rearview Mirror Reflective Sticker Sa - WHITE</t>
+          <t>3Pcs Anti-Spy Hydrogel Film for Samsung S23 S21 S2 - For Samsung S23 FE, Privacy Hydrogel, 3Pcs</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>US $1.20</t>
+          <t>US $2.77</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1415,7 +1419,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>US $1.14</t>
+          <t>US $2.66</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1425,40 +1429,40 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829317491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829297491</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['./img/8192700829317491/img_0.png']</t>
+          <t>['./img/8192700829297491/img_0.png']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>WHITE</t>
+          <t>For Samsung S23 FE, Privacy Hydrogel, 3Pcs</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8192700829297491</t>
+          <t>8192700829277491</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1468,17 +1472,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Great 3C Store</t>
+          <t>PUGTOP Official Store</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3Pcs Anti-Spy Hydrogel Film for Samsung S23 S21 S2 - For Samsung S23 FE, Privacy Hydrogel, 3Pcs</t>
+          <t>Car DVR Camera Recorder HD mini Camera WIFI USB Da - USB Version, None</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>US $2.77</t>
+          <t>US $9.71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1488,7 +1492,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>US $2.66</t>
+          <t>US $9.23</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1498,40 +1502,40 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829297491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829277491</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>LP00676886432209</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:40 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:49 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:52 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['./img/8192700829297491/img_0.png']</t>
+          <t>['./img/8192700829277491/img_0.png']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>For Samsung S23 FE, Privacy Hydrogel, 3Pcs</t>
+          <t>USB Version, None</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8192700829277491</t>
+          <t>8192700829257491</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1541,17 +1545,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PUGTOP Official Store</t>
+          <t>Top Phone Case Store</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Car DVR Camera Recorder HD mini Camera WIFI USB Da - USB Version, None</t>
+          <t>Van Gogh Sunflowers The Starry Night Art Aesthetic - 03, for iPhone 13Pro Max</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>US $9.71</t>
+          <t>US $2.25</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1561,7 +1565,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>US $9.23</t>
+          <t>US $2.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1571,40 +1575,40 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829277491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829257491</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>LP00676202584973</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:05 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:36 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['./img/8192700829277491/img_0.png']</t>
+          <t>['./img/8192700829257491/img_0.png']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>USB Version, None</t>
+          <t>03, for iPhone 13Pro Max</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8192700829257491</t>
+          <t>8192700829237491</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1614,17 +1618,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Top Phone Case Store</t>
+          <t>Ali - Health Care Store</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Van Gogh Sunflowers The Starry Night Art Aesthetic - 03, for iPhone 13Pro Max</t>
+          <t>200pcs/set Face Skin Care Acne Pimple Patch Invisi - 200pc, CN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>US $2.25</t>
+          <t>US $1.67</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1634,7 +1638,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>US $2.08</t>
+          <t>US $1.55</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1644,40 +1648,40 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829257491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829237491</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['./img/8192700829257491/img_0.png']</t>
+          <t>['./img/8192700829237491/img_0.png']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>03, for iPhone 13Pro Max</t>
+          <t>200pc, CN</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8192700829237491</t>
+          <t>8192700829217491</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1687,17 +1691,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ali - Health Care Store</t>
+          <t>Lulu Makeup Brush Store</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>200pcs/set Face Skin Care Acne Pimple Patch Invisi - 200pc, CN</t>
+          <t>4pcs/set French Braid Tool Loop Elastic Hair Bands - Purple</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>US $1.67</t>
+          <t>US $1.39</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1707,7 +1711,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>US $1.55</t>
+          <t>US $1.34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1717,40 +1721,40 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829237491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829217491</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>LP00676203095097</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:19 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:37 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:54 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['./img/8192700829237491/img_0.png']</t>
+          <t>['./img/8192700829217491/img_0.png']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>200pc, CN</t>
+          <t>Purple</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8192700829217491</t>
+          <t>8192700829197491</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1760,17 +1764,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lulu Makeup Brush Store</t>
+          <t>007 Auto Store</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4pcs/set French Braid Tool Loop Elastic Hair Bands - Purple</t>
+          <t>2PCS Car Body Reflective Stickers Side Safety Warn - WHITE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>US $1.39</t>
+          <t>US $1.74</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1780,7 +1784,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>US $1.34</t>
+          <t>US $1.68</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1790,7 +1794,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829217491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829197491</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1800,30 +1804,30 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['./img/8192700829217491/img_0.png']</t>
+          <t>['./img/8192700829197491/img_0.png']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Purple</t>
+          <t>WHITE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8192700829197491</t>
+          <t>8192700829177491</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1833,17 +1837,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>007 Auto Store</t>
+          <t>Chinese Hot Sale Store</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2PCS Car Body Reflective Stickers Side Safety Warn - WHITE</t>
+          <t>MINI Milk Frother USB Rechargeable 3 Speeds Foam M - black</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>US $1.74</t>
+          <t>US $3.57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1853,7 +1857,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>US $1.68</t>
+          <t>US $3.42</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1863,7 +1867,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829197491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829177491</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1873,30 +1877,30 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['./img/8192700829197491/img_0.png']</t>
+          <t>['./img/8192700829177491/img_0.png']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>WHITE</t>
+          <t>black</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8192700829177491</t>
+          <t>8192700829157491</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1906,17 +1910,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chinese Hot Sale Store</t>
+          <t>Lucky Cats Store</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MINI Milk Frother USB Rechargeable 3 Speeds Foam M - black</t>
+          <t>DC 3V-5V USB Micro Submersible Mini Water Pump for - WHITE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>US $3.57</t>
+          <t>US $1.73</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1926,7 +1930,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>US $3.42</t>
+          <t>US $1.60</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1936,40 +1940,40 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829177491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829157491</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['./img/8192700829177491/img_0.png']</t>
+          <t>['./img/8192700829157491/img_0.png']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>WHITE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8192700829157491</t>
+          <t>8192700829137491</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1979,17 +1983,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lucky Cats Store</t>
+          <t>srnubi Official Store</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC 3V-5V USB Micro Submersible Mini Water Pump for - WHITE</t>
+          <t>Srnubi Android 12 Carplay Car Radio for Hyundai So - T10-2 Fan-Camera, CHINA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>US $1.73</t>
+          <t>US $160.62</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1999,7 +2003,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>US $1.60</t>
+          <t>US $152.57</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2009,40 +2013,40 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829157491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829137491</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>LP00677550300051</t>
+          <t>420331729212490362719154028359</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Left from departure country/region</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:07 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:02 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 18:26 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:38 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 13, 17:28 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['./img/8192700829157491/img_0.png']</t>
+          <t>['./img/8192700829137491/img_0.png']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>WHITE</t>
+          <t>T10-2 Fan-Camera, CHINA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8192700829137491</t>
+          <t>8192700829117491</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2052,17 +2056,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>srnubi Official Store</t>
+          <t>YHDZ Store</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Srnubi Android 12 Carplay Car Radio for Hyundai So - T10-2 Fan-Camera, CHINA</t>
+          <t>6PCS Memory Foam Ear Tips for Samsung Galaxy Buds  - black, S</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>US $160.62</t>
+          <t>US $3.78</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2072,7 +2076,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>US $152.57</t>
+          <t>US $3.67</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2082,40 +2086,40 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829137491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829117491</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>420331729212490362719154028359</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Leaving from departure country/region&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:38 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 13, 17:28 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 13, 17:22 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['./img/8192700829137491/img_0.png']</t>
+          <t>['./img/8192700829117491/img_0.png']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>T10-2 Fan-Camera, CHINA</t>
+          <t>black, S</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8192700829117491</t>
+          <t>8192700829097491</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2125,12 +2129,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>YHDZ Store</t>
+          <t>Ugreen Official Store</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6PCS Memory Foam Ear Tips for Samsung Galaxy Buds  - black, S</t>
+          <t>UGREEN 100W USB Type C To USB C Cable For Macbook  - 60W PVC Black, 2m</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2145,7 +2149,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>US $3.67</t>
+          <t>US $3.62</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2155,7 +2159,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829117491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829097491</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2165,30 +2169,30 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['./img/8192700829117491/img_0.png']</t>
+          <t>['./img/8192700829097491/img_0.png']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>black, S</t>
+          <t>60W PVC Black, 2m</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8192700829097491</t>
+          <t>8192700829077491</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2198,17 +2202,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ugreen Official Store</t>
+          <t>WENBIN Phone Accessories Store</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>UGREEN 100W USB Type C To USB C Cable For Macbook  - 60W PVC Black, 2m</t>
+          <t>Case For Samsung S24 S23 S22 Ultra FE A55 A54 A15  - Dark Grey, Samsung S23 Plus</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>US $3.78</t>
+          <t>US $3.82</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2218,7 +2222,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>US $3.62</t>
+          <t>US $3.71</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2228,7 +2232,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829097491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829077491</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2238,30 +2242,30 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['./img/8192700829097491/img_0.png']</t>
+          <t>['./img/8192700829077491/img_0.png']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>60W PVC Black, 2m</t>
+          <t>Dark Grey, Samsung S23 Plus</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8192700829077491</t>
+          <t>8192700829057491</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2271,17 +2275,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>WENBIN Phone Accessories Store</t>
+          <t>Shop1103998831 Store</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case For Samsung S24 S23 S22 Ultra FE A55 A54 A15  - Dark Grey, Samsung S23 Plus</t>
+          <t>Magnetic Ring IPhone Holder For MagSafe Removable  - Gray</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>US $3.82</t>
+          <t>US $2.91</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2291,7 +2295,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>US $3.71</t>
+          <t>US $2.79</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2301,7 +2305,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829077491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829057491</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2311,30 +2315,30 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['./img/8192700829077491/img_0.png']</t>
+          <t>['./img/8192700829057491/img_0.png']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Dark Grey, Samsung S23 Plus</t>
+          <t>Gray</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8192700829057491</t>
+          <t>8192700829037491</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2344,17 +2348,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Shop1103998831 Store</t>
+          <t>yuna yuan Store</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Magnetic Ring IPhone Holder For MagSafe Removable  - Gray</t>
+          <t>Anti-Shock Strong Fited Cover Cases for Samsung Ga - PURPLE, for Galaxy S23 FE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>US $2.91</t>
+          <t>US $4.36</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2364,7 +2368,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>US $2.79</t>
+          <t>US $4.22</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2374,40 +2378,40 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829057491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829037491</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['./img/8192700829057491/img_0.png']</t>
+          <t>['./img/8192700829037491/img_0.png']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>PURPLE, for Galaxy S23 FE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8192700829037491</t>
+          <t>8192700829017491</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2417,17 +2421,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>yuna yuan Store</t>
+          <t>City of Lights Store</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Anti-Shock Strong Fited Cover Cases for Samsung Ga - PURPLE, for Galaxy S23 FE</t>
+          <t>10M USB/Battery Power Ball LED String Lights Garla - White Ball, 6M 40Leds, USB Plug</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>US $4.36</t>
+          <t>US $4.32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2437,7 +2441,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>US $4.22</t>
+          <t>US $4.19</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2447,40 +2451,40 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829037491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829017491</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LP00676203101060</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:13 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:30 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:03 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['./img/8192700829037491/img_0.png']</t>
+          <t>['./img/8192700829017491/img_0.png']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>PURPLE, for Galaxy S23 FE</t>
+          <t>White Ball, 6M 40Leds, USB Plug</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8192700829017491</t>
+          <t>8192700828997491</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2490,17 +2494,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>City of Lights Store</t>
+          <t>QST EXPress-02</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10M USB/Battery Power Ball LED String Lights Garla - White Ball, 6M 40Leds, USB Plug</t>
+          <t>Digital Battery Tester analyzer Testing Meter LCD  - Black</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>US $4.32</t>
+          <t>US $2.59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2510,7 +2514,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>US $4.19</t>
+          <t>US $2.52</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2520,40 +2524,40 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700829017491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828997491</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>LP00676884483838</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 09:28 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 06:27 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 03:01 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['./img/8192700829017491/img_0.png']</t>
+          <t>['./img/8192700828997491/img_0.png']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>White Ball, 6M 40Leds, USB Plug</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8192700828997491</t>
+          <t>8192700828977491</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2563,17 +2567,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>QST EXPress-02</t>
+          <t>BOWVER E-PARTS Store</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Digital Battery Tester analyzer Testing Meter LCD  - Black</t>
+          <t>(NO Tempered Glass) Soft TPU Nano-coated Screen Pr - 9 inch 2PCS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>US $2.59</t>
+          <t>US $7.99</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2583,7 +2587,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>US $2.52</t>
+          <t>US $7.75</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2593,40 +2597,40 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828997491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828977491</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>LP00676881021592</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:12 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:19 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:02 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['./img/8192700828997491/img_0.png']</t>
+          <t>['./img/8192700828977491/img_0.png']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>9 inch 2PCS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8192700828977491</t>
+          <t>8192700828957491</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2636,17 +2640,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BOWVER E-PARTS Store</t>
+          <t>Xiohe Store</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(NO Tempered Glass) Soft TPU Nano-coated Screen Pr - 9 inch 2PCS</t>
+          <t>Luxury Business Man Phone Case for Honor X6a Plus  - black, Honor X6a Plus</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>US $7.99</t>
+          <t>US $3.01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2656,7 +2660,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>US $7.75</t>
+          <t>US $2.77</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2666,40 +2670,40 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828977491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828957491</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>LP00676202885460</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 03:32 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 02:18 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:29 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['./img/8192700828977491/img_0.png']</t>
+          <t>['./img/8192700828957491/img_0.png']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>9 inch 2PCS</t>
+          <t>black, Honor X6a Plus</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8192700828957491</t>
+          <t>8192700828927491</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2709,27 +2713,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Xiohe Store</t>
+          <t>Sykiila Official Store</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Luxury Business Man Phone Case for Honor X6a Plus  - black, Honor X6a Plus</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>US $3.01</t>
-        </is>
-      </c>
+          <t>Multiple Products</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>US $2.77</t>
+          <t>US $4.04</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2739,40 +2739,36 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828957491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828927491</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>LP00676202885459</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:58 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:45 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 00:24 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['./img/8192700828957491/img_0.png']</t>
+          <t>['./img/8192700828927491/img_0.png', './img/8192700828927491/img_1.png']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>black, Honor X6a Plus</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8192700828927491</t>
+          <t>8192700828907491</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2782,23 +2778,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sykiila Official Store</t>
+          <t>ZZXX Wallet Case Store</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Multiple Products</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>Wallet Magnetic Flip With Card Slot Kickstand Leat - Black, Galaxy S20 FE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>US $3.31</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>US $4.04</t>
+          <t>US $3.18</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2808,36 +2808,40 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828927491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828907491</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['./img/8192700828927491/img_0.png', './img/8192700828927491/img_1.png']</t>
+          <t>['./img/8192700828907491/img_0.png']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Black, Galaxy S20 FE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8192700828907491</t>
+          <t>8192700828867491</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2847,17 +2851,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ZZXX Wallet Case Store</t>
+          <t>Qukam Stylus Store</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wallet Magnetic Flip With Card Slot Kickstand Leat - Black, Galaxy S20 FE</t>
+          <t>Stylus Pen for Apple iPad Palm Rejection Power Dis - white</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>US $3.31</t>
+          <t>US $4.24</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2867,7 +2871,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>US $3.18</t>
+          <t>US $4.08</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2877,40 +2881,40 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828907491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828867491</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>LP00676885772985</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:26 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:47 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:40 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 17:02 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 16:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 10:59 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['./img/8192700828907491/img_0.png']</t>
+          <t>['./img/8192700828867491/img_0.png']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Black, Galaxy S20 FE</t>
+          <t>white</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8192700828867491</t>
+          <t>8192700828847491</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2920,17 +2924,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Qukam Stylus Store</t>
+          <t>Aurora Shopping Store</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Stylus Pen for Apple iPad Palm Rejection Power Dis - white</t>
+          <t>Happy Baby Duck Crossbody Lanyard Silicone Phone C - White, Case &amp; Strap, CHINA, Galaxy S23 Plus</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>US $4.24</t>
+          <t>US $3.41</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2940,7 +2944,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>US $4.08</t>
+          <t>US $3.14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2950,40 +2954,40 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828867491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828847491</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Left from departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:23 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Processing at departure country/region sorting center&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Left consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 14, 23:20 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['./img/8192700828867491/img_0.png']</t>
+          <t>['./img/8192700828847491/img_0.png']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>White, Case &amp; Strap, CHINA, Galaxy S23 Plus</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8192700828847491</t>
+          <t>8192700828827491</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2993,17 +2997,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aurora Shopping Store</t>
+          <t>SinceJuly Homelife Store</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Happy Baby Duck Crossbody Lanyard Silicone Phone C - White, Case &amp; Strap, CHINA, Galaxy S23 Plus</t>
+          <t>Xiaomi Ultrasonic Glasses Cleaning 45KHZ Ultrasoun - Pink</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>US $3.41</t>
+          <t>US $11.59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3013,7 +3017,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>US $3.14</t>
+          <t>US $10.67</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3023,40 +3027,40 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828847491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828827491</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>LP00677549521239</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 07:24 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:40 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:52 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['./img/8192700828847491/img_0.png']</t>
+          <t>['./img/8192700828827491/img_0.png']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>White, Case &amp; Strap, CHINA, Galaxy S23 Plus</t>
+          <t>Pink</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8192700828827491</t>
+          <t>8192700828807491</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3066,17 +3070,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SinceJuly Homelife Store</t>
+          <t>KEDE Bathroom Accessories Store</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Xiaomi Ultrasonic Glasses Cleaning 45KHZ Ultrasoun - Pink</t>
+          <t>Motorcycle Helmet Holder Wall Mount 180°Rotation F - Black</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>US $11.59</t>
+          <t>US $9.31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3086,7 +3090,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>US $10.67</t>
+          <t>US $8.94</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3096,104 +3100,31 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828827491</t>
+          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828807491</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>LP00676202608950</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 05:17 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:21 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:02 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Customs update&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance complete&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:25 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Customs clearance started&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 05:14 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Handed over to line-haul&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 16, 00:06 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['./img/8192700828827491/img_0.png']</t>
+          <t>['./img/8192700828807491/img_0.png']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
-        <is>
-          <t>Pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>8192700828807491</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sep 11, 2024</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>KEDE Bathroom Accessories Store</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Motorcycle Helmet Holder Wall Mount 180°Rotation F - Black</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>US $9.31</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>US $8.94</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Awaiting delivery</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>https://www.aliexpress.com/p/tracking/index.html?_addShare=no&amp;_login=yes&amp;tradeOrderId=8192700828807491</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>LP00676885173865</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Received by consolidation warehouse</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>&lt;div class="tracking-process"&gt;&lt;p class="tracking-line"&gt;Shipping update&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 06:08 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Arrived at consolidation warehouse&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 04:52 (GMT-6)&lt;/p&gt;&lt;p class="tracking-line"&gt;Received by logistics company&lt;/p&gt;&lt;p class="tracking-line"&gt;Sep 15, 01:52 (GMT-6)&lt;/p&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>['./img/8192700828807491/img_0.png']</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
